--- a/app/templates/tovar_tpl.xlsx
+++ b/app/templates/tovar_tpl.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$S$18</definedName>
+  </definedNames>
   <calcPr calcId="145621" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -91,7 +94,7 @@
     <t>Всего наименований 1, на сумму {% xv total %} руб.</t>
   </si>
   <si>
-    <t>Сумма: {{ total_as_text.decode("utf-8") }} рублей 00 копеек</t>
+    <t xml:space="preserve">Сумма: {{ total_as_text.decode("utf-8") }} </t>
   </si>
 </sst>
 </file>
@@ -248,9 +251,34 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -265,31 +293,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,7 +668,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -673,295 +676,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AG18"/>
+  <dimension ref="B1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="3.5" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="7" width="5.83203125" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" customWidth="1"/>
+    <col min="11" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" customWidth="1"/>
+    <col min="14" max="15" width="5.83203125" customWidth="1"/>
+    <col min="16" max="17" width="6" customWidth="1"/>
+    <col min="18" max="18" width="5.83203125" customWidth="1"/>
+    <col min="19" max="19" width="5.5" customWidth="1"/>
+    <col min="20" max="241" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-    </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-    </row>
-    <row r="3" spans="2:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-    </row>
-    <row r="4" spans="2:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+    </row>
+    <row r="3" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+    </row>
+    <row r="4" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-    </row>
-    <row r="5" spans="2:33" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="2:18" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11" t="s">
+      <c r="L6" s="20"/>
+      <c r="M6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11" t="s">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="12" t="s">
+      <c r="P6" s="20"/>
+      <c r="Q6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-    </row>
-    <row r="7" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-    </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
+      <c r="R6" s="21"/>
+    </row>
+    <row r="7" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+    </row>
+    <row r="8" spans="2:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="18" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="18">
+      <c r="L8" s="13">
         <v>1</v>
       </c>
-      <c r="W8" s="18">
-        <v>1</v>
-      </c>
-      <c r="X8" s="19" t="s">
+      <c r="M8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="20" t="s">
+      <c r="N8" s="14"/>
+      <c r="O8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AA8" s="20">
+      <c r="P8" s="15">
         <v>3500</v>
       </c>
-      <c r="AB8" s="20">
+      <c r="Q8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="16">
         <v>3500</v>
       </c>
-      <c r="AC8" s="20">
-        <v>3500</v>
-      </c>
-      <c r="AD8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE8" s="21">
-        <v>3500</v>
-      </c>
-      <c r="AF8" s="21">
-        <v>3500</v>
-      </c>
-      <c r="AG8" s="21">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="9" spans="2:33" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -979,23 +883,8 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-    </row>
-    <row r="10" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1010,141 +899,77 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD10" s="13" t="s">
+      <c r="Q10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AE10" s="13">
+      <c r="R10" s="7">
         <v>3500</v>
       </c>
-      <c r="AF10" s="13">
-        <v>3500</v>
-      </c>
-      <c r="AG10" s="13">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="11" spans="2:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+    </row>
+    <row r="11" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-    </row>
-    <row r="12" spans="2:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+    </row>
+    <row r="12" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="D14" s="15" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-    </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1160,37 +985,16 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="2:33" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" t="s">
+      <c r="E16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1206,75 +1010,45 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="2:33" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="I18" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="R18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="B11:AG11"/>
-    <mergeCell ref="B12:AF12"/>
-    <mergeCell ref="D14:AG14"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:R4"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:J7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B12:Q12"/>
+    <mergeCell ref="D14:R14"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="B1:AC1"/>
-    <mergeCell ref="B2:AG3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:AG4"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:T7"/>
-    <mergeCell ref="U6:W7"/>
-    <mergeCell ref="X6:Y7"/>
-    <mergeCell ref="Z6:AC7"/>
-    <mergeCell ref="AD6:AG7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>